--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Bmp8a</t>
   </si>
   <si>
     <t>Tgfbr2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.267818806636823</v>
+        <v>0.3786073333333334</v>
       </c>
       <c r="H2">
-        <v>0.267818806636823</v>
+        <v>1.135822</v>
       </c>
       <c r="I2">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="J2">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.8229900544327</v>
+        <v>27.592778</v>
       </c>
       <c r="N2">
-        <v>23.8229900544327</v>
+        <v>82.778334</v>
       </c>
       <c r="O2">
-        <v>0.243720063312163</v>
+        <v>0.2684079248986126</v>
       </c>
       <c r="P2">
-        <v>0.243720063312163</v>
+        <v>0.2684079248986126</v>
       </c>
       <c r="Q2">
-        <v>6.380244766899069</v>
+        <v>10.44682809783867</v>
       </c>
       <c r="R2">
-        <v>6.380244766899069</v>
+        <v>94.02145288054801</v>
       </c>
       <c r="S2">
-        <v>0.1069468862465984</v>
+        <v>0.09966765618506591</v>
       </c>
       <c r="T2">
-        <v>0.1069468862465984</v>
+        <v>0.09966765618506591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.267818806636823</v>
+        <v>0.3786073333333334</v>
       </c>
       <c r="H3">
-        <v>0.267818806636823</v>
+        <v>1.135822</v>
       </c>
       <c r="I3">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="J3">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>64.7640601289208</v>
+        <v>65.63594833333333</v>
       </c>
       <c r="N3">
-        <v>64.7640601289208</v>
+        <v>196.907845</v>
       </c>
       <c r="O3">
-        <v>0.6625658995326807</v>
+        <v>0.6384717294830753</v>
       </c>
       <c r="P3">
-        <v>0.6625658995326807</v>
+        <v>0.6384717294830752</v>
       </c>
       <c r="Q3">
-        <v>17.34503329668302</v>
+        <v>24.85025136928778</v>
       </c>
       <c r="R3">
-        <v>17.34503329668302</v>
+        <v>223.65226232359</v>
       </c>
       <c r="S3">
-        <v>0.2907407741702343</v>
+        <v>0.2370830922449134</v>
       </c>
       <c r="T3">
-        <v>0.2907407741702343</v>
+        <v>0.2370830922449134</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.267818806636823</v>
+        <v>0.3786073333333334</v>
       </c>
       <c r="H4">
-        <v>0.267818806636823</v>
+        <v>1.135822</v>
       </c>
       <c r="I4">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="J4">
-        <v>0.4388103498464059</v>
+        <v>0.3713290366620658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.160298683529049</v>
+        <v>9.572925333333334</v>
       </c>
       <c r="N4">
-        <v>9.160298683529049</v>
+        <v>28.718776</v>
       </c>
       <c r="O4">
-        <v>0.09371403715515622</v>
+        <v>0.09312034561831214</v>
       </c>
       <c r="P4">
-        <v>0.09371403715515622</v>
+        <v>0.09312034561831213</v>
       </c>
       <c r="Q4">
-        <v>2.453300261859611</v>
+        <v>3.624379732652445</v>
       </c>
       <c r="R4">
-        <v>2.453300261859611</v>
+        <v>32.61941759387201</v>
       </c>
       <c r="S4">
-        <v>0.04112268942957318</v>
+        <v>0.03457828823208647</v>
       </c>
       <c r="T4">
-        <v>0.04112268942957318</v>
+        <v>0.03457828823208646</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.342510477370644</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H5">
-        <v>0.342510477370644</v>
+        <v>1.279705</v>
       </c>
       <c r="I5">
-        <v>0.5611896501535941</v>
+        <v>0.4183680408212104</v>
       </c>
       <c r="J5">
-        <v>0.5611896501535941</v>
+        <v>0.4183680408212104</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.8229900544327</v>
+        <v>27.592778</v>
       </c>
       <c r="N5">
-        <v>23.8229900544327</v>
+        <v>82.778334</v>
       </c>
       <c r="O5">
-        <v>0.243720063312163</v>
+        <v>0.2684079248986126</v>
       </c>
       <c r="P5">
-        <v>0.243720063312163</v>
+        <v>0.2684079248986126</v>
       </c>
       <c r="Q5">
-        <v>8.159623695939848</v>
+        <v>11.77020532349666</v>
       </c>
       <c r="R5">
-        <v>8.159623695939848</v>
+        <v>105.93184791147</v>
       </c>
       <c r="S5">
-        <v>0.1367731770655645</v>
+        <v>0.1122932976807191</v>
       </c>
       <c r="T5">
-        <v>0.1367731770655645</v>
+        <v>0.1122932976807191</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.342510477370644</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H6">
-        <v>0.342510477370644</v>
+        <v>1.279705</v>
       </c>
       <c r="I6">
-        <v>0.5611896501535941</v>
+        <v>0.4183680408212104</v>
       </c>
       <c r="J6">
-        <v>0.5611896501535941</v>
+        <v>0.4183680408212104</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>64.7640601289208</v>
+        <v>65.63594833333333</v>
       </c>
       <c r="N6">
-        <v>64.7640601289208</v>
+        <v>196.907845</v>
       </c>
       <c r="O6">
-        <v>0.6625658995326807</v>
+        <v>0.6384717294830753</v>
       </c>
       <c r="P6">
-        <v>0.6625658995326807</v>
+        <v>0.6384717294830752</v>
       </c>
       <c r="Q6">
-        <v>22.18236915121776</v>
+        <v>27.99821708730277</v>
       </c>
       <c r="R6">
-        <v>22.18236915121776</v>
+        <v>251.983953785725</v>
       </c>
       <c r="S6">
-        <v>0.3718251253624465</v>
+        <v>0.267116166583564</v>
       </c>
       <c r="T6">
-        <v>0.3718251253624465</v>
+        <v>0.267116166583564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.4265683333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.279705</v>
+      </c>
+      <c r="I7">
+        <v>0.4183680408212104</v>
+      </c>
+      <c r="J7">
+        <v>0.4183680408212104</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>9.572925333333334</v>
+      </c>
+      <c r="N7">
+        <v>28.718776</v>
+      </c>
+      <c r="O7">
+        <v>0.09312034561831214</v>
+      </c>
+      <c r="P7">
+        <v>0.09312034561831213</v>
+      </c>
+      <c r="Q7">
+        <v>4.083506804564444</v>
+      </c>
+      <c r="R7">
+        <v>36.75156124108</v>
+      </c>
+      <c r="S7">
+        <v>0.03895857655692724</v>
+      </c>
+      <c r="T7">
+        <v>0.03895857655692723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.342510477370644</v>
-      </c>
-      <c r="H7">
-        <v>0.342510477370644</v>
-      </c>
-      <c r="I7">
-        <v>0.5611896501535941</v>
-      </c>
-      <c r="J7">
-        <v>0.5611896501535941</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>9.160298683529049</v>
-      </c>
-      <c r="N7">
-        <v>9.160298683529049</v>
-      </c>
-      <c r="O7">
-        <v>0.09371403715515622</v>
-      </c>
-      <c r="P7">
-        <v>0.09371403715515622</v>
-      </c>
-      <c r="Q7">
-        <v>3.137498274953217</v>
-      </c>
-      <c r="R7">
-        <v>3.137498274953217</v>
-      </c>
-      <c r="S7">
-        <v>0.05259134772558304</v>
-      </c>
-      <c r="T7">
-        <v>0.05259134772558304</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.214425</v>
+      </c>
+      <c r="H8">
+        <v>0.6432749999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.2103029225167239</v>
+      </c>
+      <c r="J8">
+        <v>0.2103029225167238</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>27.592778</v>
+      </c>
+      <c r="N8">
+        <v>82.778334</v>
+      </c>
+      <c r="O8">
+        <v>0.2684079248986126</v>
+      </c>
+      <c r="P8">
+        <v>0.2684079248986126</v>
+      </c>
+      <c r="Q8">
+        <v>5.916581422649999</v>
+      </c>
+      <c r="R8">
+        <v>53.24923280384999</v>
+      </c>
+      <c r="S8">
+        <v>0.05644697103282756</v>
+      </c>
+      <c r="T8">
+        <v>0.05644697103282755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.214425</v>
+      </c>
+      <c r="H9">
+        <v>0.6432749999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.2103029225167239</v>
+      </c>
+      <c r="J9">
+        <v>0.2103029225167238</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>65.63594833333333</v>
+      </c>
+      <c r="N9">
+        <v>196.907845</v>
+      </c>
+      <c r="O9">
+        <v>0.6384717294830753</v>
+      </c>
+      <c r="P9">
+        <v>0.6384717294830752</v>
+      </c>
+      <c r="Q9">
+        <v>14.073988221375</v>
+      </c>
+      <c r="R9">
+        <v>126.665893992375</v>
+      </c>
+      <c r="S9">
+        <v>0.1342724706545979</v>
+      </c>
+      <c r="T9">
+        <v>0.1342724706545978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.214425</v>
+      </c>
+      <c r="H10">
+        <v>0.6432749999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.2103029225167239</v>
+      </c>
+      <c r="J10">
+        <v>0.2103029225167238</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9.572925333333334</v>
+      </c>
+      <c r="N10">
+        <v>28.718776</v>
+      </c>
+      <c r="O10">
+        <v>0.09312034561831214</v>
+      </c>
+      <c r="P10">
+        <v>0.09312034561831213</v>
+      </c>
+      <c r="Q10">
+        <v>2.0526745146</v>
+      </c>
+      <c r="R10">
+        <v>18.4740706314</v>
+      </c>
+      <c r="S10">
+        <v>0.01958348082929845</v>
+      </c>
+      <c r="T10">
+        <v>0.01958348082929844</v>
       </c>
     </row>
   </sheetData>
